--- a/销售单模板.xlsx
+++ b/销售单模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\郭乐源\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProject\广西永湘物流有限公司\oa-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0D837-024F-40D7-BAD8-01D34DC28959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61360916-7E62-4981-8969-42087C5285C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1530" windowWidth="23790" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>货物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,43 @@
   </si>
   <si>
     <t>合同时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人姓名（业务员）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忻城南华糖业有限责任公司</t>
+  </si>
+  <si>
+    <t>广西丰沣顺国际物流有限公司</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场净重结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海运：港到港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月榨季</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +126,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -115,8 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -397,18 +452,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -444,6 +503,50 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>44932</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/销售单模板.xlsx
+++ b/销售单模板.xlsx
@@ -1,90 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\郭乐源\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陶祎祎\Documents\WeChat Files\wxid_guhg739bsw8421\FileStorage\File\2023-02\导入模版\导入模版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E0D837-024F-40D7-BAD8-01D34DC28959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8FC243-EE61-427F-AE7E-D9B1084EA490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="1530" windowWidth="23790" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>销售方公司名</t>
+  </si>
+  <si>
+    <t>己方公司</t>
+  </si>
   <si>
     <t>货物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售方公司名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>己方公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货物数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货物单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货物单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>销售总价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结款方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运输方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结款方式（出厂净重结算/卸货净重结算）</t>
+  </si>
+  <si>
+    <t>运输方式（自提、陆运、海运：港到港、海运：门到港、海运：门到门 、海运：港到门）</t>
   </si>
   <si>
     <t>榨季</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS654125487/样例，导入前删除本行</t>
+  </si>
+  <si>
+    <t>忻城南华糖业有限责任公司</t>
+  </si>
+  <si>
+    <t>广西丰沣顺国际物流有限公司</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>吨</t>
+  </si>
+  <si>
+    <t>出厂净重结算</t>
+  </si>
+  <si>
+    <t>自提</t>
+  </si>
+  <si>
+    <t>自定义文本框</t>
+  </si>
+  <si>
+    <t>卸货净重结算</t>
+  </si>
+  <si>
+    <t>陆运</t>
+  </si>
+  <si>
+    <t>海运：港到港</t>
+  </si>
+  <si>
+    <t>海运：门到港</t>
+  </si>
+  <si>
+    <t>海运：门到门</t>
+  </si>
+  <si>
+    <t>海运：港到门</t>
+  </si>
+  <si>
+    <t>合同时间（格式为xxxx-xx-xx）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版填写说明：
+1.本列不能删除，且不用填写任何信息；
+2.第一行表头信息不得修改、调整、删除等；
+3.不能随意更改单元格格式，否则会导致导入失败。
+4.金额最多保留两位小数，单位“元”，同时不能出现中文，如不能填“2万”
+5.日期格式必须用“-”分割，如2023-01-01；
+6.【己方公司】，必须和以下三个完全一模一样，否则导入失败：广西丰沣顺国际物流有限公司，广西永湘物流有限公司，广西永湘贸易有限责任公司
+7.运输方式必须一模一样，不能使用其它形式表示，如不能填“海运港到港”，必须填“海运：港到港”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,16 +149,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,12 +195,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -177,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -212,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -387,67 +522,313 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.149999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.2109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.35546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.0703125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="378" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I7" si="0">F2*H2</f>
+        <v>150000</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="40.299999999999997" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4">
+        <v>44932</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/s0YeqLOy36NP8LSXyBmWllXozflNNyi6m532hK2mgm5Fqh/e2GeiOZb9QMXlH9eR6npkmAO3whQjzly+dWv/w==" saltValue="OiGc0bTQ+hKtUSu4uF1D2A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
